--- a/Протокол обмена PC-HMI ver_1_0.xlsx
+++ b/Протокол обмена PC-HMI ver_1_0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="22245" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="22245" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Modbus RTU" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="74">
   <si>
     <t>Протокол обмена данными между HMI и PC</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Разбитовка IO_Diag_AI_1</t>
   </si>
   <si>
-    <t>Разбитовка IO_Diag_AI_2</t>
-  </si>
-  <si>
     <t>Емкость №1</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve"> IO_Diag_AI_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IO_Diag_AI_2</t>
   </si>
 </sst>
 </file>
@@ -568,15 +562,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -639,10 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,15 +635,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -964,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,8 +971,8 @@
     <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="20"/>
-    <col min="5" max="5" width="11.140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="5" max="5" width="11.140625" style="18" customWidth="1"/>
     <col min="6" max="6" width="90.28515625" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -991,916 +987,893 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8">
         <v>400001</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="7">
+        <v>400003</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="7">
+        <v>400005</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="7">
+        <v>400007</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="7">
+        <v>400009</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="7">
+        <v>400011</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="7">
+        <v>400013</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="7">
+        <v>400015</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="7">
+        <v>400017</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="7">
+        <v>400019</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="7">
+        <v>400021</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="7">
+        <v>400023</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="7">
+        <v>400025</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="7">
+        <v>400027</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="7">
+        <v>400029</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="7">
+        <v>400031</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="7">
+        <v>400033</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="7">
+        <v>400035</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="7">
+        <v>400037</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="7">
+        <v>400039</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="11">
+        <v>400041</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="13">
+        <v>400043</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="7">
+        <v>400045</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9">
-        <v>400003</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="7">
+        <v>400047</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="D27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9">
-        <v>400005</v>
-      </c>
-      <c r="C6" s="9" t="s">
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="7">
+        <v>400049</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="D28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9">
-        <v>400007</v>
-      </c>
-      <c r="C7" s="9" t="s">
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="7">
+        <v>400051</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="D29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9">
-        <v>400009</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="7">
+        <v>400053</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="D30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9">
-        <v>400011</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="7">
+        <v>400055</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="D31" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9">
-        <v>400013</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="7">
+        <v>400057</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="D32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9">
-        <v>400015</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="7">
+        <v>400059</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="D33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9">
-        <v>400017</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="7">
+        <v>400061</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="7">
+        <v>400063</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9">
-        <v>400019</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="D35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9">
-        <v>400021</v>
-      </c>
-      <c r="C14" s="9" t="s">
+    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="7">
+        <v>400065</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="D36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9">
-        <v>400023</v>
-      </c>
-      <c r="C15" s="9" t="s">
+    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="7">
+        <v>400067</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="D37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9">
-        <v>400025</v>
-      </c>
-      <c r="C16" s="9" t="s">
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="7">
+        <v>400069</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="D38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9">
-        <v>400027</v>
-      </c>
-      <c r="C17" s="9" t="s">
+    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="7">
+        <v>400071</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="D39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9">
-        <v>400029</v>
-      </c>
-      <c r="C18" s="9" t="s">
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="7">
+        <v>400073</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="D40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9">
-        <v>400031</v>
-      </c>
-      <c r="C19" s="9" t="s">
+    <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="7">
+        <v>400075</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="D41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9">
-        <v>400033</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="7">
+        <v>400077</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="D42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9">
-        <v>400035</v>
-      </c>
-      <c r="C21" s="9" t="s">
+    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="7">
+        <v>400079</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="D43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9">
-        <v>400037</v>
-      </c>
-      <c r="C22" s="9" t="s">
+    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="7">
+        <v>400081</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="D44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9">
-        <v>400039</v>
-      </c>
-      <c r="C23" s="9" t="s">
+    <row r="45" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="34"/>
+      <c r="B45" s="25">
+        <v>400083</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="12" t="s">
+      <c r="D45" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="13">
-        <v>400041</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="14" t="s">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="28">
+        <v>400085</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="15">
-        <v>400043</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9">
-        <v>400045</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9">
-        <v>400047</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9">
-        <v>400049</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9">
-        <v>400051</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9">
-        <v>400053</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9">
-        <v>400055</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9">
-        <v>400057</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9">
-        <v>400059</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9">
-        <v>400061</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9">
-        <v>400063</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="9">
-        <v>400065</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9">
-        <v>400067</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9">
-        <v>400069</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9">
-        <v>400071</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="9">
-        <v>400073</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="9">
-        <v>400075</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9">
-        <v>400077</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9">
-        <v>400079</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9">
-        <v>400081</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="27">
-        <v>400083</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="32">
-        <v>400085</v>
-      </c>
-      <c r="C46" s="32" t="s">
+      <c r="D46" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="E46" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="F46" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="34" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="37">
+        <v>400087</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="31">
+        <v>400086</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="35">
-        <v>400086</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="32">
-        <v>400087</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="35">
-        <v>400088</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="A25:A45"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1912,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1928,7 +1901,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,111 +2026,69 @@
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
         <v>18</v>
       </c>
     </row>
